--- a/random/target14.xlsx
+++ b/random/target14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k1le0\go\src\github.com\k1le0\onecli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k1le0\GolandProjects\onecli\random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F531696-6545-4ED5-9B56-3C992E5C4197}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307C63AD-5BBB-4580-8B3E-AC3B5A92D021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>modelName</t>
   </si>
@@ -50,25 +50,139 @@
     <t>switch1</t>
   </si>
   <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>TEXTARES</t>
+  </si>
+  <si>
+    <t>PERSONNEL</t>
+  </si>
+  <si>
+    <t>ACCESSORY</t>
+  </si>
+  <si>
+    <t>数据类型中文</t>
+  </si>
+  <si>
+    <t>数据类型英文</t>
+  </si>
+  <si>
+    <t>单行文本</t>
+  </si>
+  <si>
+    <t>多行文本</t>
+  </si>
+  <si>
+    <t>下拉选项</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t>单选</t>
+  </si>
+  <si>
+    <t>RADIO</t>
+  </si>
+  <si>
+    <t>复选</t>
+  </si>
+  <si>
+    <t>CHECKBOX</t>
+  </si>
+  <si>
+    <t>小数</t>
+  </si>
+  <si>
+    <t>DECIMALS</t>
+  </si>
+  <si>
+    <t>整数</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>表格</t>
+  </si>
+  <si>
+    <t>LIST</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>人员</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>IMAGE</t>
+  </si>
+  <si>
+    <t>附件</t>
+  </si>
+  <si>
+    <t>布尔</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>引用</t>
+  </si>
+  <si>
+    <t>QUOTE</t>
+  </si>
+  <si>
+    <t>计算</t>
+  </si>
+  <si>
+    <t>CALCULATION</t>
+  </si>
+  <si>
+    <t>Code码</t>
+  </si>
+  <si>
+    <t>ASSETCODE</t>
+  </si>
+  <si>
+    <t>BasicInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INPUT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>默认属性</t>
   </si>
   <si>
-    <t>属性1</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>INPUT</t>
-  </si>
-  <si>
     <t>属性2</t>
   </si>
   <si>
     <t>a2</t>
   </si>
   <si>
-    <t>TEXTARES</t>
+    <t>TEXTAREA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>分组1</t>
@@ -80,7 +194,8 @@
     <t>a9</t>
   </si>
   <si>
-    <t>PERSONNEL</t>
+    <t>SELECT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>属性10</t>
@@ -89,7 +204,8 @@
     <t>a10</t>
   </si>
   <si>
-    <t>ACCESSORY</t>
+    <t>SWITCH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>分组2</t>
@@ -105,103 +221,13 @@
   </si>
   <si>
     <t>a12</t>
-  </si>
-  <si>
-    <t>数据类型中文</t>
-  </si>
-  <si>
-    <t>数据类型英文</t>
-  </si>
-  <si>
-    <t>单行文本</t>
-  </si>
-  <si>
-    <t>多行文本</t>
-  </si>
-  <si>
-    <t>下拉选项</t>
-  </si>
-  <si>
-    <t>SELECT</t>
-  </si>
-  <si>
-    <t>单选</t>
-  </si>
-  <si>
-    <t>RADIO</t>
-  </si>
-  <si>
-    <t>复选</t>
-  </si>
-  <si>
-    <t>CHECKBOX</t>
-  </si>
-  <si>
-    <t>小数</t>
-  </si>
-  <si>
-    <t>DECIMALS</t>
-  </si>
-  <si>
-    <t>整数</t>
-  </si>
-  <si>
-    <t>INTEGER</t>
-  </si>
-  <si>
-    <t>表格</t>
-  </si>
-  <si>
-    <t>LIST</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>人员</t>
-  </si>
-  <si>
-    <t>图片</t>
-  </si>
-  <si>
-    <t>IMAGE</t>
-  </si>
-  <si>
-    <t>附件</t>
-  </si>
-  <si>
-    <t>布尔</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>引用</t>
-  </si>
-  <si>
-    <t>QUOTE</t>
-  </si>
-  <si>
-    <t>计算</t>
-  </si>
-  <si>
-    <t>CALCULATION</t>
-  </si>
-  <si>
-    <t>Code码</t>
-  </si>
-  <si>
-    <t>ASSETCODE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +253,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -250,7 +282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,6 +290,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,7 +579,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -578,139 +619,139 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="4">
+        <v>222</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="4">
+        <v>222</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="4">
+        <v>333</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="4">
+        <v>333</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1">
-        <v>222</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1">
-        <v>222</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1">
-        <v>333</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1">
-        <v>333</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="G8" s="1"/>
+      <c r="G8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -735,138 +776,138 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
